--- a/tools_and_functions/making mapping columns.xlsx
+++ b/tools_and_functions/making mapping columns.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wayne/Documents/Programming/vscode/API/SQL_query/tools and functions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wayne/Documents/Programming/vscode/API/SQL_query/tools_and_functions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98A1887-76AD-5945-B8CE-DAC3AC68C8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B6CB4E-7D39-7341-AF4B-628824FC5740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-2680" windowWidth="38400" windowHeight="21100" xr2:uid="{00BD8256-C04A-A443-9499-A98D9E7C3A7E}"/>
+    <workbookView xWindow="-38400" yWindow="-2680" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00BD8256-C04A-A443-9499-A98D9E7C3A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="161">
   <si>
     <t>net weight mg</t>
   </si>
@@ -184,19 +185,388 @@
   </si>
   <si>
     <t>tissue areal density mg/cm2</t>
+  </si>
+  <si>
+    <t>'run_id'</t>
+  </si>
+  <si>
+    <t>'Time'</t>
+  </si>
+  <si>
+    <t>'pH Acid(0) - Setpoint'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pH Alkali(1) - Setpoint'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'dO2(2) - Setpoint'</t>
+  </si>
+  <si>
+    <t>'Temperature(3) - Setpoint'</t>
+  </si>
+  <si>
+    <t>'Temperature Jacket(4) - Setpoint'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Heater(54) - State'</t>
+  </si>
+  <si>
+    <t>'Heater(54) - Value'</t>
+  </si>
+  <si>
+    <t>'PT-100 Bio(8) - State'</t>
+  </si>
+  <si>
+    <t>'PT-100 Bio(8) - Value'</t>
+  </si>
+  <si>
+    <t>'PT-100 Jacket(9) - State'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'PT-100 Jacket(9) - Value'</t>
+  </si>
+  <si>
+    <t>'4-20mA pH Temperature(12) - State'</t>
+  </si>
+  <si>
+    <t>'4-20mA pH Temperature(12) - Value'</t>
+  </si>
+  <si>
+    <t>'4-20mA pH(13) - State'</t>
+  </si>
+  <si>
+    <t>'4-20mA pH(13) - Value'</t>
+  </si>
+  <si>
+    <t>'4-20mA dO2 Temperature(14) - State'</t>
+  </si>
+  <si>
+    <t>'4-20mA dO2 Temperature(14) - Value'</t>
+  </si>
+  <si>
+    <t>'Gas Air(45) - State'</t>
+  </si>
+  <si>
+    <t>'Gas Air(45) - Value'</t>
+  </si>
+  <si>
+    <t>'Gas O2(46) - State'</t>
+  </si>
+  <si>
+    <t>'Gas O2(46) - Value'</t>
+  </si>
+  <si>
+    <t>'Gas CO2(47) - State'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Gas CO2(47) - Value'</t>
+  </si>
+  <si>
+    <t>'MFC Air Value(0) - State'</t>
+  </si>
+  <si>
+    <t>'MFC Air Value(0) - Value'</t>
+  </si>
+  <si>
+    <t>'Base In (LS14)(66) - State'</t>
+  </si>
+  <si>
+    <t>'Base In (LS14)(66) - Value'</t>
+  </si>
+  <si>
+    <t>'Recirculation IN (LS16)(67) - State'</t>
+  </si>
+  <si>
+    <t>'Recirculation IN (LS16)(67) - Value'</t>
+  </si>
+  <si>
+    <t>'Recirculation OUT (LS16)(68) - State'</t>
+  </si>
+  <si>
+    <t>'Recirculation OUT (LS16)(68) - Value'</t>
+  </si>
+  <si>
+    <t>'4-20mA dO2 (15) - State'</t>
+  </si>
+  <si>
+    <t>'4-20mA dO2 (15) - Value'</t>
+  </si>
+  <si>
+    <t>'MFC Air Cmd(18) - State'</t>
+  </si>
+  <si>
+    <t>'MFC Air Cmd(18) - Value'</t>
+  </si>
+  <si>
+    <t>'Media In / Sampling (LS25)(69) - State'</t>
+  </si>
+  <si>
+    <t>Media In / Sampling (LS25)(69) - Value'</t>
+  </si>
+  <si>
+    <t>'experiment_id'</t>
+  </si>
+  <si>
+    <t>run_id</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>upper_pH_setpoint</t>
+  </si>
+  <si>
+    <t>lower_pH_setpoint</t>
+  </si>
+  <si>
+    <t>DO2_setpoint</t>
+  </si>
+  <si>
+    <t>temperature_setpoint_C</t>
+  </si>
+  <si>
+    <t>temperature_jacket_setpoint_C</t>
+  </si>
+  <si>
+    <t>heater_state</t>
+  </si>
+  <si>
+    <t>pt_100_bio_state</t>
+  </si>
+  <si>
+    <t>pt_100_jacket_state</t>
+  </si>
+  <si>
+    <t>4-20mA_pH_temperature_state</t>
+  </si>
+  <si>
+    <t>4-20mA_pH_temperature_value</t>
+  </si>
+  <si>
+    <t>4-20mA_pH_state</t>
+  </si>
+  <si>
+    <t>4-20mA_DO2_temperature_state</t>
+  </si>
+  <si>
+    <t>gas_air_state</t>
+  </si>
+  <si>
+    <t>gas_O2_state</t>
+  </si>
+  <si>
+    <t>gas_CO2_state</t>
+  </si>
+  <si>
+    <t>MFC_air_value_state</t>
+  </si>
+  <si>
+    <t>base_in_state</t>
+  </si>
+  <si>
+    <t>base_in_ml_per_ml</t>
+  </si>
+  <si>
+    <t>recirculation_in_state</t>
+  </si>
+  <si>
+    <t>MFC_air_ml_per_min</t>
+  </si>
+  <si>
+    <t>recirculation_in_ml_per_min</t>
+  </si>
+  <si>
+    <t>recirculation_out_state</t>
+  </si>
+  <si>
+    <t>recirculation_out_ml_per_min</t>
+  </si>
+  <si>
+    <t>gas_CO2_percent</t>
+  </si>
+  <si>
+    <t>gas_O2_percent</t>
+  </si>
+  <si>
+    <t>gas_air_percent</t>
+  </si>
+  <si>
+    <t>heater_percent</t>
+  </si>
+  <si>
+    <t>pt_100_bio_C</t>
+  </si>
+  <si>
+    <t>pt_100_jacket_C</t>
+  </si>
+  <si>
+    <t>4-20mA_pH</t>
+  </si>
+  <si>
+    <t>4-20mA_DO2_temperature_C</t>
+  </si>
+  <si>
+    <t>4-20mA_DO2_state</t>
+  </si>
+  <si>
+    <t>4-20mA_DO2_percent</t>
+  </si>
+  <si>
+    <t>MFC_air_cmd_state</t>
+  </si>
+  <si>
+    <t>MFC_air_cmd_ml_per_min</t>
+  </si>
+  <si>
+    <t>media_in_sampling_state</t>
+  </si>
+  <si>
+    <t>media_in_sampling_ml_per_min</t>
+  </si>
+  <si>
+    <t>"experiment_id":"experiment_id"</t>
+  </si>
+  <si>
+    <t>"run_id":"run_id"</t>
+  </si>
+  <si>
+    <t>"Time":"time"</t>
+  </si>
+  <si>
+    <t>"pH Acid(0) - Setpoint":"upper_pH_setpoint"</t>
+  </si>
+  <si>
+    <t>" pH Alkali(1) - Setpoint":"lower_pH_setpoint"</t>
+  </si>
+  <si>
+    <t>" dO2(2) - Setpoint":"DO2_setpoint"</t>
+  </si>
+  <si>
+    <t>"Temperature(3) - Setpoint":"temperature_setpoint_C"</t>
+  </si>
+  <si>
+    <t>"Temperature Jacket(4) - Setpoint":"temperature_jacket_setpoint_C"</t>
+  </si>
+  <si>
+    <t>" Heater(54) - State":"heater_state"</t>
+  </si>
+  <si>
+    <t>"Heater(54) - Value":"heater_percent"</t>
+  </si>
+  <si>
+    <t>"PT-100 Bio(8) - State":"pt_100_bio_state"</t>
+  </si>
+  <si>
+    <t>"PT-100 Bio(8) - Value":"pt_100_bio_C"</t>
+  </si>
+  <si>
+    <t>"PT-100 Jacket(9) - State":"pt_100_jacket_state"</t>
+  </si>
+  <si>
+    <t>" PT-100 Jacket(9) - Value":"pt_100_jacket_C"</t>
+  </si>
+  <si>
+    <t>"4-20mA pH Temperature(12) - State":"4-20mA_pH_temperature_state"</t>
+  </si>
+  <si>
+    <t>"4-20mA pH Temperature(12) - Value":"4-20mA_pH_temperature_value"</t>
+  </si>
+  <si>
+    <t>"4-20mA pH(13) - State":"4-20mA_pH_state"</t>
+  </si>
+  <si>
+    <t>"4-20mA pH(13) - Value":"4-20mA_pH"</t>
+  </si>
+  <si>
+    <t>"4-20mA dO2 Temperature(14) - State":"4-20mA_DO2_temperature_state"</t>
+  </si>
+  <si>
+    <t>"4-20mA dO2 Temperature(14) - Value":"4-20mA_DO2_temperature_C"</t>
+  </si>
+  <si>
+    <t>"Gas Air(45) - State":"gas_air_state"</t>
+  </si>
+  <si>
+    <t>"Gas Air(45) - Value":"gas_air_percent"</t>
+  </si>
+  <si>
+    <t>"Gas O2(46) - State":"gas_O2_state"</t>
+  </si>
+  <si>
+    <t>"Gas O2(46) - Value":"gas_O2_percent"</t>
+  </si>
+  <si>
+    <t>"Gas CO2(47) - State":"gas_CO2_state"</t>
+  </si>
+  <si>
+    <t>" Gas CO2(47) - Value":"gas_CO2_percent"</t>
+  </si>
+  <si>
+    <t>"MFC Air Value(0) - State":"MFC_air_value_state"</t>
+  </si>
+  <si>
+    <t>"MFC Air Value(0) - Value":"MFC_air_ml_per_min"</t>
+  </si>
+  <si>
+    <t>"Base In (LS14)(66) - State":"base_in_state"</t>
+  </si>
+  <si>
+    <t>"Base In (LS14)(66) - Value":"base_in_ml_per_ml"</t>
+  </si>
+  <si>
+    <t>"Recirculation IN (LS16)(67) - State":"recirculation_in_state"</t>
+  </si>
+  <si>
+    <t>"Recirculation IN (LS16)(67) - Value":"recirculation_in_ml_per_min"</t>
+  </si>
+  <si>
+    <t>"Recirculation OUT (LS16)(68) - State":"recirculation_out_state"</t>
+  </si>
+  <si>
+    <t>"Recirculation OUT (LS16)(68) - Value":"recirculation_out_ml_per_min"</t>
+  </si>
+  <si>
+    <t>"4-20mA dO2 (15) - State":"4-20mA_DO2_state"</t>
+  </si>
+  <si>
+    <t>"4-20mA dO2 (15) - Value":"4-20mA_DO2_percent"</t>
+  </si>
+  <si>
+    <t>"MFC Air Cmd(18) - State":"MFC_air_cmd_state"</t>
+  </si>
+  <si>
+    <t>"MFC Air Cmd(18) - Value":"MFC_air_cmd_ml_per_min"</t>
+  </si>
+  <si>
+    <t>"Media In / Sampling (LS25)(69) - State":"media_in_sampling_state"</t>
+  </si>
+  <si>
+    <t>"Media In / Sampling (LS25)(69) - Value":"media_in_sampling_ml_per_min"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -219,8 +589,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6433B29-96A2-4B4F-9BD2-4A412F5A52EF}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -945,4 +1318,1085 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B57346-B78E-A14F-A9D5-3524D2F41099}">
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="str" cm="1">
+        <f t="array" ref="A9:A48">_xlfn.TOCOL(A1:J6,1,)</f>
+        <v>'experiment_id'</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",A9,"""",":","""",B9,"""")</f>
+        <v>"'experiment_id'":"experiment_id"</v>
+      </c>
+      <c r="E9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" t="str">
+        <f>E9 &amp;","</f>
+        <v>"experiment_id":"experiment_id",</v>
+      </c>
+      <c r="H9" t="str">
+        <f>B9&amp;","</f>
+        <v>experiment_id,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <v>'run_id'</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" ref="C10:C48" si="0">_xlfn.CONCAT("""",A10,"""",":","""",B10,"""")</f>
+        <v>"'run_id'":"run_id"</v>
+      </c>
+      <c r="E10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" ref="F10:F48" si="1">E10 &amp;","</f>
+        <v>"run_id":"run_id",</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ref="H10:H48" si="2">B10&amp;","</f>
+        <v>run_id,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <v>'Time'</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>"'Time'":"time"</v>
+      </c>
+      <c r="E11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>"Time":"time",</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>time,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <v>'pH Acid(0) - Setpoint'</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>"'pH Acid(0) - Setpoint'":"upper_pH_setpoint"</v>
+      </c>
+      <c r="E12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>"pH Acid(0) - Setpoint":"upper_pH_setpoint",</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>upper_pH_setpoint,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <v xml:space="preserve"> 'pH Alkali(1) - Setpoint'</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>" 'pH Alkali(1) - Setpoint'":"lower_pH_setpoint"</v>
+      </c>
+      <c r="E13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>" pH Alkali(1) - Setpoint":"lower_pH_setpoint",</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>lower_pH_setpoint,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <v xml:space="preserve"> 'dO2(2) - Setpoint'</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>" 'dO2(2) - Setpoint'":"DO2_setpoint"</v>
+      </c>
+      <c r="E14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>" dO2(2) - Setpoint":"DO2_setpoint",</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>DO2_setpoint,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <v>'Temperature(3) - Setpoint'</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>"'Temperature(3) - Setpoint'":"temperature_setpoint_C"</v>
+      </c>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>"Temperature(3) - Setpoint":"temperature_setpoint_C",</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>temperature_setpoint_C,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <v>'Temperature Jacket(4) - Setpoint'</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>"'Temperature Jacket(4) - Setpoint'":"temperature_jacket_setpoint_C"</v>
+      </c>
+      <c r="E16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>"Temperature Jacket(4) - Setpoint":"temperature_jacket_setpoint_C",</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>temperature_jacket_setpoint_C,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <v xml:space="preserve"> 'Heater(54) - State'</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>" 'Heater(54) - State'":"heater_state"</v>
+      </c>
+      <c r="E17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>" Heater(54) - State":"heater_state",</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>heater_state,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <v>'Heater(54) - Value'</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>"'Heater(54) - Value'":"heater_percent"</v>
+      </c>
+      <c r="E18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>"Heater(54) - Value":"heater_percent",</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>heater_percent,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <v>'PT-100 Bio(8) - State'</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>"'PT-100 Bio(8) - State'":"pt_100_bio_state"</v>
+      </c>
+      <c r="E19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>"PT-100 Bio(8) - State":"pt_100_bio_state",</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>pt_100_bio_state,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <v>'PT-100 Bio(8) - Value'</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>"'PT-100 Bio(8) - Value'":"pt_100_bio_C"</v>
+      </c>
+      <c r="E20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>"PT-100 Bio(8) - Value":"pt_100_bio_C",</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>pt_100_bio_C,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <v>'PT-100 Jacket(9) - State'</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>"'PT-100 Jacket(9) - State'":"pt_100_jacket_state"</v>
+      </c>
+      <c r="E21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>"PT-100 Jacket(9) - State":"pt_100_jacket_state",</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>pt_100_jacket_state,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <v xml:space="preserve"> 'PT-100 Jacket(9) - Value'</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>" 'PT-100 Jacket(9) - Value'":"pt_100_jacket_C"</v>
+      </c>
+      <c r="E22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>" PT-100 Jacket(9) - Value":"pt_100_jacket_C",</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>pt_100_jacket_C,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <v>'4-20mA pH Temperature(12) - State'</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>"'4-20mA pH Temperature(12) - State'":"4-20mA_pH_temperature_state"</v>
+      </c>
+      <c r="E23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>"4-20mA pH Temperature(12) - State":"4-20mA_pH_temperature_state",</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>4-20mA_pH_temperature_state,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <v>'4-20mA pH Temperature(12) - Value'</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>"'4-20mA pH Temperature(12) - Value'":"4-20mA_pH_temperature_value"</v>
+      </c>
+      <c r="E24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>"4-20mA pH Temperature(12) - Value":"4-20mA_pH_temperature_value",</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>4-20mA_pH_temperature_value,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <v>'4-20mA pH(13) - State'</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>"'4-20mA pH(13) - State'":"4-20mA_pH_state"</v>
+      </c>
+      <c r="E25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>"4-20mA pH(13) - State":"4-20mA_pH_state",</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>4-20mA_pH_state,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <v>'4-20mA pH(13) - Value'</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>"'4-20mA pH(13) - Value'":"4-20mA_pH"</v>
+      </c>
+      <c r="E26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>"4-20mA pH(13) - Value":"4-20mA_pH",</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>4-20mA_pH,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <v>'4-20mA dO2 Temperature(14) - State'</v>
+      </c>
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>"'4-20mA dO2 Temperature(14) - State'":"4-20mA_DO2_temperature_state"</v>
+      </c>
+      <c r="E27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>"4-20mA dO2 Temperature(14) - State":"4-20mA_DO2_temperature_state",</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>4-20mA_DO2_temperature_state,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <v>'4-20mA dO2 Temperature(14) - Value'</v>
+      </c>
+      <c r="B28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>"'4-20mA dO2 Temperature(14) - Value'":"4-20mA_DO2_temperature_C"</v>
+      </c>
+      <c r="E28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>"4-20mA dO2 Temperature(14) - Value":"4-20mA_DO2_temperature_C",</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>4-20mA_DO2_temperature_C,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <v>'Gas Air(45) - State'</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>"'Gas Air(45) - State'":"gas_air_state"</v>
+      </c>
+      <c r="E29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>"Gas Air(45) - State":"gas_air_state",</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>gas_air_state,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <v>'Gas Air(45) - Value'</v>
+      </c>
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>"'Gas Air(45) - Value'":"gas_air_percent"</v>
+      </c>
+      <c r="E30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>"Gas Air(45) - Value":"gas_air_percent",</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>gas_air_percent,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <v>'Gas O2(46) - State'</v>
+      </c>
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>"'Gas O2(46) - State'":"gas_O2_state"</v>
+      </c>
+      <c r="E31" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>"Gas O2(46) - State":"gas_O2_state",</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>gas_O2_state,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <v>'Gas O2(46) - Value'</v>
+      </c>
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>"'Gas O2(46) - Value'":"gas_O2_percent"</v>
+      </c>
+      <c r="E32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>"Gas O2(46) - Value":"gas_O2_percent",</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v>gas_O2_percent,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <v>'Gas CO2(47) - State'</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>"'Gas CO2(47) - State'":"gas_CO2_state"</v>
+      </c>
+      <c r="E33" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>"Gas CO2(47) - State":"gas_CO2_state",</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>gas_CO2_state,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <v xml:space="preserve"> 'Gas CO2(47) - Value'</v>
+      </c>
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>" 'Gas CO2(47) - Value'":"gas_CO2_percent"</v>
+      </c>
+      <c r="E34" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>" Gas CO2(47) - Value":"gas_CO2_percent",</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>gas_CO2_percent,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <v>'MFC Air Value(0) - State'</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>"'MFC Air Value(0) - State'":"MFC_air_value_state"</v>
+      </c>
+      <c r="E35" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>"MFC Air Value(0) - State":"MFC_air_value_state",</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>MFC_air_value_state,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <v>'MFC Air Value(0) - Value'</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>"'MFC Air Value(0) - Value'":"MFC_air_ml_per_min"</v>
+      </c>
+      <c r="E36" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>"MFC Air Value(0) - Value":"MFC_air_ml_per_min",</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v>MFC_air_ml_per_min,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <v>'Base In (LS14)(66) - State'</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>"'Base In (LS14)(66) - State'":"base_in_state"</v>
+      </c>
+      <c r="E37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>"Base In (LS14)(66) - State":"base_in_state",</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v>base_in_state,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <v>'Base In (LS14)(66) - Value'</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>"'Base In (LS14)(66) - Value'":"base_in_ml_per_ml"</v>
+      </c>
+      <c r="E38" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>"Base In (LS14)(66) - Value":"base_in_ml_per_ml",</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v>base_in_ml_per_ml,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="str">
+        <v>'Recirculation IN (LS16)(67) - State'</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>"'Recirculation IN (LS16)(67) - State'":"recirculation_in_state"</v>
+      </c>
+      <c r="E39" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>"Recirculation IN (LS16)(67) - State":"recirculation_in_state",</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="2"/>
+        <v>recirculation_in_state,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
+        <v>'Recirculation IN (LS16)(67) - Value'</v>
+      </c>
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>"'Recirculation IN (LS16)(67) - Value'":"recirculation_in_ml_per_min"</v>
+      </c>
+      <c r="E40" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>"Recirculation IN (LS16)(67) - Value":"recirculation_in_ml_per_min",</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="2"/>
+        <v>recirculation_in_ml_per_min,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="str">
+        <v>'Recirculation OUT (LS16)(68) - State'</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>"'Recirculation OUT (LS16)(68) - State'":"recirculation_out_state"</v>
+      </c>
+      <c r="E41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>"Recirculation OUT (LS16)(68) - State":"recirculation_out_state",</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
+        <v>recirculation_out_state,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
+        <v>'Recirculation OUT (LS16)(68) - Value'</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>"'Recirculation OUT (LS16)(68) - Value'":"recirculation_out_ml_per_min"</v>
+      </c>
+      <c r="E42" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>"Recirculation OUT (LS16)(68) - Value":"recirculation_out_ml_per_min",</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
+        <v>recirculation_out_ml_per_min,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="str">
+        <v>'4-20mA dO2 (15) - State'</v>
+      </c>
+      <c r="B43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>"'4-20mA dO2 (15) - State'":"4-20mA_DO2_state"</v>
+      </c>
+      <c r="E43" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>"4-20mA dO2 (15) - State":"4-20mA_DO2_state",</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
+        <v>4-20mA_DO2_state,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="str">
+        <v>'4-20mA dO2 (15) - Value'</v>
+      </c>
+      <c r="B44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>"'4-20mA dO2 (15) - Value'":"4-20mA_DO2_percent"</v>
+      </c>
+      <c r="E44" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>"4-20mA dO2 (15) - Value":"4-20mA_DO2_percent",</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
+        <v>4-20mA_DO2_percent,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="str">
+        <v>'MFC Air Cmd(18) - State'</v>
+      </c>
+      <c r="B45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>"'MFC Air Cmd(18) - State'":"MFC_air_cmd_state"</v>
+      </c>
+      <c r="E45" t="s">
+        <v>157</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>"MFC Air Cmd(18) - State":"MFC_air_cmd_state",</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
+        <v>MFC_air_cmd_state,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="str">
+        <v>'MFC Air Cmd(18) - Value'</v>
+      </c>
+      <c r="B46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>"'MFC Air Cmd(18) - Value'":"MFC_air_cmd_ml_per_min"</v>
+      </c>
+      <c r="E46" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>"MFC Air Cmd(18) - Value":"MFC_air_cmd_ml_per_min",</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
+        <v>MFC_air_cmd_ml_per_min,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="str">
+        <v>'Media In / Sampling (LS25)(69) - State'</v>
+      </c>
+      <c r="B47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>"'Media In / Sampling (LS25)(69) - State'":"media_in_sampling_state"</v>
+      </c>
+      <c r="E47" t="s">
+        <v>159</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="1"/>
+        <v>"Media In / Sampling (LS25)(69) - State":"media_in_sampling_state",</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="2"/>
+        <v>media_in_sampling_state,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="str">
+        <v>Media In / Sampling (LS25)(69) - Value'</v>
+      </c>
+      <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>"Media In / Sampling (LS25)(69) - Value'":"media_in_sampling_ml_per_min"</v>
+      </c>
+      <c r="E48" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="1"/>
+        <v>"Media In / Sampling (LS25)(69) - Value":"media_in_sampling_ml_per_min",</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="2"/>
+        <v>media_in_sampling_ml_per_min,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tools_and_functions/making mapping columns.xlsx
+++ b/tools_and_functions/making mapping columns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wayne/Documents/Programming/vscode/API/SQL_query/tools_and_functions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B6CB4E-7D39-7341-AF4B-628824FC5740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C1931E-60FE-0D4E-BAB6-4ACDB594DBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-2680" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00BD8256-C04A-A443-9499-A98D9E7C3A7E}"/>
+    <workbookView xWindow="-76800" yWindow="-2680" windowWidth="38400" windowHeight="21100" xr2:uid="{00BD8256-C04A-A443-9499-A98D9E7C3A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,10 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="161">
-  <si>
-    <t>net weight mg</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="193">
   <si>
     <t xml:space="preserve"> "experiment_ID" : "experiment_ID"</t>
   </si>
@@ -154,39 +151,9 @@
     <t xml:space="preserve"> "mg/cm2" : "mg/cm2"</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>experiment_id</t>
   </si>
   <si>
-    <t>biopsy_id</t>
-  </si>
-  <si>
-    <t>biomaterial_id</t>
-  </si>
-  <si>
-    <t>mg/biopsy mean</t>
-  </si>
-  <si>
-    <t>mg/biopsy std</t>
-  </si>
-  <si>
-    <t>mg/ml mean</t>
-  </si>
-  <si>
-    <t>mg/ml std</t>
-  </si>
-  <si>
-    <t>mg/cm2 mean</t>
-  </si>
-  <si>
-    <t>mg/cm2 std</t>
-  </si>
-  <si>
-    <t>tissue areal density mg/cm2</t>
-  </si>
-  <si>
     <t>'run_id'</t>
   </si>
   <si>
@@ -542,6 +509,135 @@
   </si>
   <si>
     <t>"Media In / Sampling (LS25)(69) - Value":"media_in_sampling_ml_per_min"</t>
+  </si>
+  <si>
+    <t>dna_sid</t>
+  </si>
+  <si>
+    <t>sample_id</t>
+  </si>
+  <si>
+    <t>sample_type</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>sample_diameter_mm</t>
+  </si>
+  <si>
+    <t>digestion_volume_ul</t>
+  </si>
+  <si>
+    <t>digested_sample_volume_ul</t>
+  </si>
+  <si>
+    <t>buffer_volume_ul</t>
+  </si>
+  <si>
+    <t>dilution_factor</t>
+  </si>
+  <si>
+    <t>assay_volume_ul</t>
+  </si>
+  <si>
+    <t>biopsy_region</t>
+  </si>
+  <si>
+    <t>culture_duration_days</t>
+  </si>
+  <si>
+    <t>master_well_plate_location</t>
+  </si>
+  <si>
+    <t>avg_ug_per_cm2</t>
+  </si>
+  <si>
+    <t>avg_ug_per_cm2_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'dna_sid' : 'dna_sid',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'experiment_id' : 'experiment_id',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'sample_id' : 'sample_id',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'sample_type' : 'sample_type',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'description' : 'description',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'sample_diameter_mm' : 'sample_diameter_mm',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'digestion_volume_ul' : 'digestion_volume_ul',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'digested_sample_volume_ul' : 'digested_sample_volume_ul',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'buffer_volume_ul' : 'buffer_volume_ul',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'dilution_factor' : 'dilution_factor',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'assay_volume_ul' : 'assay_volume_ul',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'biopsy_region' : 'biopsy_region',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'culture_duration_days' : 'culture_duration_days',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'master_well_plate_location' : 'master_well_plate_location',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'avg_ug_per_cm2' : 'avg_ug_per_cm2',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'avg_ug_per_cm2_std' : 'avg_ug_per_cm2_std',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '0' : '0',</t>
+  </si>
+  <si>
+    <t>sample_replicate</t>
+  </si>
+  <si>
+    <t>std_conc_ng_per_well</t>
+  </si>
+  <si>
+    <t>abs</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>ng_per_well</t>
+  </si>
+  <si>
+    <t>ug_per_ml</t>
+  </si>
+  <si>
+    <t>ug_per_biopsy</t>
+  </si>
+  <si>
+    <t>ug_per_cm2</t>
+  </si>
+  <si>
+    <t>r_squared</t>
+  </si>
+  <si>
+    <t>data_check</t>
   </si>
 </sst>
 </file>
@@ -908,411 +1004,546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6433B29-96A2-4B4F-9BD2-4A412F5A52EF}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="K1" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="L1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="M1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>184</v>
+      </c>
+      <c r="R1" t="s">
+        <v>185</v>
+      </c>
+      <c r="S1" t="s">
+        <v>186</v>
+      </c>
+      <c r="T1" t="s">
+        <v>187</v>
+      </c>
+      <c r="U1" t="s">
+        <v>188</v>
+      </c>
+      <c r="V1" t="s">
+        <v>189</v>
+      </c>
+      <c r="W1" t="s">
+        <v>190</v>
+      </c>
+      <c r="X1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="str" cm="1">
         <f t="array" ref="A3:A32">TRANSPOSE(A1:AD1)</f>
-        <v>id</v>
+        <v>dna_sid</v>
       </c>
       <c r="D3" t="str">
-        <f>_xlfn.CONCAT(" '",A3,"' ",":"," '",A3,"'")</f>
-        <v xml:space="preserve"> 'id' : 'id'</v>
+        <f>_xlfn.CONCAT(" '",A3,"' ",":"," '",A3,"'",",")</f>
+        <v xml:space="preserve"> 'dna_sid' : 'dna_sid',</v>
       </c>
       <c r="J3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <v>experiment_id</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D32" si="0">_xlfn.CONCAT(" '",A4,"' ",":"," '",A4,"'")</f>
-        <v xml:space="preserve"> 'experiment_id' : 'experiment_id'</v>
+        <f t="shared" ref="D4:D32" si="0">_xlfn.CONCAT(" '",A4,"' ",":"," '",A4,"'",",")</f>
+        <v xml:space="preserve"> 'experiment_id' : 'experiment_id',</v>
       </c>
       <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <v>sample_id</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'sample_id' : 'sample_id',</v>
+      </c>
+      <c r="J5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <v>biopsy_id</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> 'biopsy_id' : 'biopsy_id'</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="Q5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <v>sample_type</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'sample_type' : 'sample_type',</v>
+      </c>
+      <c r="J6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="str">
-        <v>biomaterial_id</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> 'biomaterial_id' : 'biomaterial_id'</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="Q6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <v>description</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'description' : 'description',</v>
+      </c>
+      <c r="J7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="str">
-        <v>mg/biopsy mean</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> 'mg/biopsy mean' : 'mg/biopsy mean'</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="Q7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <v>sample_replicate</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'sample_replicate' : 'sample_replicate',</v>
+      </c>
+      <c r="J8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="str">
-        <v>mg/biopsy std</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> 'mg/biopsy std' : 'mg/biopsy std'</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="Q8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <v>sample_diameter_mm</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'sample_diameter_mm' : 'sample_diameter_mm',</v>
+      </c>
+      <c r="J9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="str">
-        <v>mg/ml mean</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> 'mg/ml mean' : 'mg/ml mean'</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="Q9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <v>digestion_volume_ul</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'digestion_volume_ul' : 'digestion_volume_ul',</v>
+      </c>
+      <c r="J10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="str">
-        <v>mg/ml std</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> 'mg/ml std' : 'mg/ml std'</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="Q10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <v>digested_sample_volume_ul</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'digested_sample_volume_ul' : 'digested_sample_volume_ul',</v>
+      </c>
+      <c r="J11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="str">
-        <v>mg/cm2 mean</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> 'mg/cm2 mean' : 'mg/cm2 mean'</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="Q11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <v>buffer_volume_ul</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'buffer_volume_ul' : 'buffer_volume_ul',</v>
+      </c>
+      <c r="J12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="str">
-        <v>mg/cm2 std</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> 'mg/cm2 std' : 'mg/cm2 std'</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="Q12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <v>dilution_factor</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'dilution_factor' : 'dilution_factor',</v>
+      </c>
+      <c r="J13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="str">
-        <v>net weight mg</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> 'net weight mg' : 'net weight mg'</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="Q13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <v>assay_volume_ul</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'assay_volume_ul' : 'assay_volume_ul',</v>
+      </c>
+      <c r="J14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="str">
-        <v>tissue areal density mg/cm2</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> 'tissue areal density mg/cm2' : 'tissue areal density mg/cm2'</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="Q14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <v>std_conc_ng_per_well</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'std_conc_ng_per_well' : 'std_conc_ng_per_well',</v>
+      </c>
+      <c r="J15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> '0' : '0'</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="Q15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <v>biopsy_region</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'biopsy_region' : 'biopsy_region',</v>
+      </c>
+      <c r="J16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> '0' : '0'</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="Q16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <v>culture_duration_days</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'culture_duration_days' : 'culture_duration_days',</v>
+      </c>
+      <c r="J17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> '0' : '0'</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="Q17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <v>master_well_plate_location</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'master_well_plate_location' : 'master_well_plate_location',</v>
+      </c>
+      <c r="J18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> '0' : '0'</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="Q18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <v>abs</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'abs' : 'abs',</v>
+      </c>
+      <c r="J19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> '0' : '0'</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="Q19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <v>sheet_name</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'sheet_name' : 'sheet_name',</v>
+      </c>
+      <c r="J20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> '0' : '0'</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="Q20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <v>location</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'location' : 'location',</v>
+      </c>
+      <c r="J21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> '0' : '0'</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="Q21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <v>ng_per_well</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'ng_per_well' : 'ng_per_well',</v>
+      </c>
+      <c r="J22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> '0' : '0'</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="Q22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <v>ug_per_ml</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'ug_per_ml' : 'ug_per_ml',</v>
+      </c>
+      <c r="J23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> '0' : '0'</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="Q23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <v>ug_per_biopsy</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'ug_per_biopsy' : 'ug_per_biopsy',</v>
+      </c>
+      <c r="J24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> '0' : '0'</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="Q24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <v>ug_per_cm2</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'ug_per_cm2' : 'ug_per_cm2',</v>
+      </c>
+      <c r="J25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> '0' : '0'</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="Q25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <v>r_squared</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'r_squared' : 'r_squared',</v>
+      </c>
+      <c r="J26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> '0' : '0'</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="Q26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <v>data_check</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'data_check' : 'data_check',</v>
+      </c>
+      <c r="J27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> '0' : '0'</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="Q27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <v>avg_ug_per_cm2</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'avg_ug_per_cm2' : 'avg_ug_per_cm2',</v>
+      </c>
+      <c r="J28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> '0' : '0'</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="Q28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <v>avg_ug_per_cm2_std</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'avg_ug_per_cm2_std' : 'avg_ug_per_cm2_std',</v>
+      </c>
+      <c r="J29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>0</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> '0' : '0'</v>
-      </c>
-      <c r="J29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="Q29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> '0' : '0'</v>
+        <v xml:space="preserve"> '0' : '0',</v>
       </c>
       <c r="J30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> '0' : '0'</v>
+        <v xml:space="preserve"> '0' : '0',</v>
       </c>
       <c r="J31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> '0' : '0'</v>
+        <v xml:space="preserve"> '0' : '0',</v>
       </c>
       <c r="J32" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +1555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B57346-B78E-A14F-A9D5-3524D2F41099}">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9:H48"/>
     </sheetView>
   </sheetViews>
@@ -1345,134 +1576,134 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1481,14 +1712,14 @@
         <v>'experiment_id'</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" t="str">
         <f>_xlfn.CONCAT("""",A9,"""",":","""",B9,"""")</f>
         <v>"'experiment_id'":"experiment_id"</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F9" t="str">
         <f>E9 &amp;","</f>
@@ -1504,14 +1735,14 @@
         <v>'run_id'</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ref="C10:C48" si="0">_xlfn.CONCAT("""",A10,"""",":","""",B10,"""")</f>
         <v>"'run_id'":"run_id"</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" ref="F10:F48" si="1">E10 &amp;","</f>
@@ -1527,14 +1758,14 @@
         <v>'Time'</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>"'Time'":"time"</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
@@ -1550,14 +1781,14 @@
         <v>'pH Acid(0) - Setpoint'</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v>"'pH Acid(0) - Setpoint'":"upper_pH_setpoint"</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
@@ -1573,14 +1804,14 @@
         <v xml:space="preserve"> 'pH Alkali(1) - Setpoint'</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v>" 'pH Alkali(1) - Setpoint'":"lower_pH_setpoint"</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
@@ -1596,14 +1827,14 @@
         <v xml:space="preserve"> 'dO2(2) - Setpoint'</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v>" 'dO2(2) - Setpoint'":"DO2_setpoint"</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
@@ -1619,14 +1850,14 @@
         <v>'Temperature(3) - Setpoint'</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>"'Temperature(3) - Setpoint'":"temperature_setpoint_C"</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
@@ -1642,14 +1873,14 @@
         <v>'Temperature Jacket(4) - Setpoint'</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v>"'Temperature Jacket(4) - Setpoint'":"temperature_jacket_setpoint_C"</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
@@ -1665,14 +1896,14 @@
         <v xml:space="preserve"> 'Heater(54) - State'</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v>" 'Heater(54) - State'":"heater_state"</v>
       </c>
       <c r="E17" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
@@ -1688,14 +1919,14 @@
         <v>'Heater(54) - Value'</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
         <v>"'Heater(54) - Value'":"heater_percent"</v>
       </c>
       <c r="E18" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="1"/>
@@ -1711,14 +1942,14 @@
         <v>'PT-100 Bio(8) - State'</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
         <v>"'PT-100 Bio(8) - State'":"pt_100_bio_state"</v>
       </c>
       <c r="E19" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
@@ -1734,14 +1965,14 @@
         <v>'PT-100 Bio(8) - Value'</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
         <v>"'PT-100 Bio(8) - Value'":"pt_100_bio_C"</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
@@ -1757,14 +1988,14 @@
         <v>'PT-100 Jacket(9) - State'</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
         <v>"'PT-100 Jacket(9) - State'":"pt_100_jacket_state"</v>
       </c>
       <c r="E21" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
@@ -1780,14 +2011,14 @@
         <v xml:space="preserve"> 'PT-100 Jacket(9) - Value'</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
         <v>" 'PT-100 Jacket(9) - Value'":"pt_100_jacket_C"</v>
       </c>
       <c r="E22" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
@@ -1803,14 +2034,14 @@
         <v>'4-20mA pH Temperature(12) - State'</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
         <v>"'4-20mA pH Temperature(12) - State'":"4-20mA_pH_temperature_state"</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
@@ -1826,14 +2057,14 @@
         <v>'4-20mA pH Temperature(12) - Value'</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
         <v>"'4-20mA pH Temperature(12) - Value'":"4-20mA_pH_temperature_value"</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="1"/>
@@ -1849,14 +2080,14 @@
         <v>'4-20mA pH(13) - State'</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
         <v>"'4-20mA pH(13) - State'":"4-20mA_pH_state"</v>
       </c>
       <c r="E25" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="1"/>
@@ -1872,14 +2103,14 @@
         <v>'4-20mA pH(13) - Value'</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
         <v>"'4-20mA pH(13) - Value'":"4-20mA_pH"</v>
       </c>
       <c r="E26" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="1"/>
@@ -1895,14 +2126,14 @@
         <v>'4-20mA dO2 Temperature(14) - State'</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
         <v>"'4-20mA dO2 Temperature(14) - State'":"4-20mA_DO2_temperature_state"</v>
       </c>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="1"/>
@@ -1918,14 +2149,14 @@
         <v>'4-20mA dO2 Temperature(14) - Value'</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
         <v>"'4-20mA dO2 Temperature(14) - Value'":"4-20mA_DO2_temperature_C"</v>
       </c>
       <c r="E28" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="1"/>
@@ -1941,14 +2172,14 @@
         <v>'Gas Air(45) - State'</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
         <v>"'Gas Air(45) - State'":"gas_air_state"</v>
       </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="1"/>
@@ -1964,14 +2195,14 @@
         <v>'Gas Air(45) - Value'</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
         <v>"'Gas Air(45) - Value'":"gas_air_percent"</v>
       </c>
       <c r="E30" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="1"/>
@@ -1987,14 +2218,14 @@
         <v>'Gas O2(46) - State'</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
         <v>"'Gas O2(46) - State'":"gas_O2_state"</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="1"/>
@@ -2010,14 +2241,14 @@
         <v>'Gas O2(46) - Value'</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
         <v>"'Gas O2(46) - Value'":"gas_O2_percent"</v>
       </c>
       <c r="E32" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="1"/>
@@ -2033,14 +2264,14 @@
         <v>'Gas CO2(47) - State'</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
         <v>"'Gas CO2(47) - State'":"gas_CO2_state"</v>
       </c>
       <c r="E33" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="1"/>
@@ -2056,14 +2287,14 @@
         <v xml:space="preserve"> 'Gas CO2(47) - Value'</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
         <v>" 'Gas CO2(47) - Value'":"gas_CO2_percent"</v>
       </c>
       <c r="E34" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="1"/>
@@ -2079,14 +2310,14 @@
         <v>'MFC Air Value(0) - State'</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
         <v>"'MFC Air Value(0) - State'":"MFC_air_value_state"</v>
       </c>
       <c r="E35" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="1"/>
@@ -2102,14 +2333,14 @@
         <v>'MFC Air Value(0) - Value'</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
         <v>"'MFC Air Value(0) - Value'":"MFC_air_ml_per_min"</v>
       </c>
       <c r="E36" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="1"/>
@@ -2125,14 +2356,14 @@
         <v>'Base In (LS14)(66) - State'</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
         <v>"'Base In (LS14)(66) - State'":"base_in_state"</v>
       </c>
       <c r="E37" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="1"/>
@@ -2148,14 +2379,14 @@
         <v>'Base In (LS14)(66) - Value'</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
         <v>"'Base In (LS14)(66) - Value'":"base_in_ml_per_ml"</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="1"/>
@@ -2171,14 +2402,14 @@
         <v>'Recirculation IN (LS16)(67) - State'</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
         <v>"'Recirculation IN (LS16)(67) - State'":"recirculation_in_state"</v>
       </c>
       <c r="E39" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="1"/>
@@ -2194,14 +2425,14 @@
         <v>'Recirculation IN (LS16)(67) - Value'</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
         <v>"'Recirculation IN (LS16)(67) - Value'":"recirculation_in_ml_per_min"</v>
       </c>
       <c r="E40" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="1"/>
@@ -2217,14 +2448,14 @@
         <v>'Recirculation OUT (LS16)(68) - State'</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
         <v>"'Recirculation OUT (LS16)(68) - State'":"recirculation_out_state"</v>
       </c>
       <c r="E41" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="1"/>
@@ -2240,14 +2471,14 @@
         <v>'Recirculation OUT (LS16)(68) - Value'</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
         <v>"'Recirculation OUT (LS16)(68) - Value'":"recirculation_out_ml_per_min"</v>
       </c>
       <c r="E42" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="1"/>
@@ -2263,14 +2494,14 @@
         <v>'4-20mA dO2 (15) - State'</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
         <v>"'4-20mA dO2 (15) - State'":"4-20mA_DO2_state"</v>
       </c>
       <c r="E43" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="1"/>
@@ -2286,14 +2517,14 @@
         <v>'4-20mA dO2 (15) - Value'</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
         <v>"'4-20mA dO2 (15) - Value'":"4-20mA_DO2_percent"</v>
       </c>
       <c r="E44" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="1"/>
@@ -2309,14 +2540,14 @@
         <v>'MFC Air Cmd(18) - State'</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
         <v>"'MFC Air Cmd(18) - State'":"MFC_air_cmd_state"</v>
       </c>
       <c r="E45" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="1"/>
@@ -2332,14 +2563,14 @@
         <v>'MFC Air Cmd(18) - Value'</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
         <v>"'MFC Air Cmd(18) - Value'":"MFC_air_cmd_ml_per_min"</v>
       </c>
       <c r="E46" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="1"/>
@@ -2355,14 +2586,14 @@
         <v>'Media In / Sampling (LS25)(69) - State'</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
         <v>"'Media In / Sampling (LS25)(69) - State'":"media_in_sampling_state"</v>
       </c>
       <c r="E47" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="1"/>
@@ -2378,14 +2609,14 @@
         <v>Media In / Sampling (LS25)(69) - Value'</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
         <v>"Media In / Sampling (LS25)(69) - Value'":"media_in_sampling_ml_per_min"</v>
       </c>
       <c r="E48" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="1"/>
